--- a/GI01SUMO/Omaha_Cal_Info_GI01SUMO_00001.xlsx
+++ b/GI01SUMO/Omaha_Cal_Info_GI01SUMO_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4830" windowWidth="23070" windowHeight="4860" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="4836" windowWidth="23076" windowHeight="4860"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="150_CC_taarray" sheetId="5" r:id="rId5"/>
     <sheet name="150_CC_tcarray" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="267">
   <si>
     <t>Ref Des</t>
   </si>
@@ -729,81 +729,6 @@
     <t>SheetRef:150_CC_tcarray</t>
   </si>
   <si>
-    <r>
-      <t>GI01SUMO-RII11-02-CTDMO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>015</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GI01SUMO-RII11-02-CTDMO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>014</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GI01SUMO-RII11-02-CTDMO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>013</t>
-    </r>
-  </si>
-  <si>
     <t>CC_scattering_angle</t>
   </si>
   <si>
@@ -887,6 +812,18 @@
   <si>
     <t>GI01SUMO-00001-DCL16</t>
   </si>
+  <si>
+    <t>Global Irminger D00001 has only one functioning glider (477). This glider failed in April so no additional data will be available until recovery in August 2015.</t>
+  </si>
+  <si>
+    <t>GI01SUMO-RII11-02-CTDMOR013</t>
+  </si>
+  <si>
+    <t>GI01SUMO-RII11-02-CTDMOR014</t>
+  </si>
+  <si>
+    <t>GI01SUMO-RII11-02-CTDMOR015</t>
+  </si>
 </sst>
 </file>
 
@@ -901,7 +838,7 @@
     <numFmt numFmtId="168" formatCode="0.0000E+00"/>
     <numFmt numFmtId="169" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,6 +983,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1271,7 +1215,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1506,6 +1450,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="99">
     <cellStyle name="Comma 2" xfId="72"/>
@@ -1907,26 +1860,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="4"/>
+    <col min="14" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -1964,9 +1917,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>117</v>
@@ -1993,8 +1946,8 @@
       <c r="J2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>122</v>
+      <c r="K2" s="92" t="s">
+        <v>263</v>
       </c>
       <c r="L2" s="90">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
@@ -2005,7 +1958,7 @@
         <v>-39.473833333333332</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2016,7 +1969,9 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2028,27 +1983,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P195" sqref="P195"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F238" sqref="F238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="10"/>
-    <col min="8" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="10"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="4.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -2074,7 +2029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>40</v>
       </c>
@@ -2085,11 +2040,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G2" s="47"/>
     </row>
-    <row r="4" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>41</v>
       </c>
@@ -2116,7 +2071,7 @@
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
     </row>
-    <row r="5" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>41</v>
       </c>
@@ -2143,7 +2098,7 @@
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
     </row>
-    <row r="6" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>41</v>
       </c>
@@ -2170,7 +2125,7 @@
       <c r="J6" s="47"/>
       <c r="K6" s="47"/>
     </row>
-    <row r="7" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>41</v>
       </c>
@@ -2197,7 +2152,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="47"/>
     </row>
-    <row r="8" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>41</v>
       </c>
@@ -2224,7 +2179,7 @@
       <c r="J8" s="47"/>
       <c r="K8" s="47"/>
     </row>
-    <row r="9" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>41</v>
       </c>
@@ -2251,7 +2206,7 @@
       <c r="J9" s="47"/>
       <c r="K9" s="47"/>
     </row>
-    <row r="10" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>41</v>
       </c>
@@ -2278,7 +2233,7 @@
       <c r="J10" s="47"/>
       <c r="K10" s="47"/>
     </row>
-    <row r="11" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>41</v>
       </c>
@@ -2305,7 +2260,7 @@
       <c r="J11" s="47"/>
       <c r="K11" s="47"/>
     </row>
-    <row r="12" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>41</v>
       </c>
@@ -2332,7 +2287,7 @@
       <c r="J12" s="47"/>
       <c r="K12" s="47"/>
     </row>
-    <row r="13" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -2343,7 +2298,7 @@
       <c r="J13" s="47"/>
       <c r="K13" s="47"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>42</v>
       </c>
@@ -2366,7 +2321,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>42</v>
       </c>
@@ -2389,7 +2344,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>42</v>
       </c>
@@ -2412,7 +2367,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>42</v>
       </c>
@@ -2435,7 +2390,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>42</v>
       </c>
@@ -2458,7 +2413,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>42</v>
       </c>
@@ -2481,7 +2436,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>42</v>
       </c>
@@ -2504,7 +2459,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>42</v>
       </c>
@@ -2527,7 +2482,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>42</v>
       </c>
@@ -2550,11 +2505,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="49"/>
       <c r="C23" s="47"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>43</v>
       </c>
@@ -2578,7 +2533,7 @@
       </c>
       <c r="H24" s="51"/>
     </row>
-    <row r="25" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>43</v>
       </c>
@@ -2602,7 +2557,7 @@
       </c>
       <c r="H25" s="51"/>
     </row>
-    <row r="26" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>43</v>
       </c>
@@ -2626,7 +2581,7 @@
       </c>
       <c r="H26" s="51"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="42"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -2638,7 +2593,7 @@
       </c>
       <c r="H27" s="51"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>44</v>
       </c>
@@ -2662,7 +2617,7 @@
       </c>
       <c r="H28" s="51"/>
     </row>
-    <row r="29" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>44</v>
       </c>
@@ -2686,7 +2641,7 @@
       </c>
       <c r="H29" s="51"/>
     </row>
-    <row r="30" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
         <v>44</v>
       </c>
@@ -2710,7 +2665,7 @@
       </c>
       <c r="H30" s="51"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -2722,7 +2677,7 @@
       </c>
       <c r="H31" s="51"/>
     </row>
-    <row r="32" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -2732,7 +2687,7 @@
       <c r="G32" s="51"/>
       <c r="H32" s="51"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
@@ -2744,7 +2699,7 @@
       </c>
       <c r="H33" s="41"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
@@ -2756,7 +2711,7 @@
       </c>
       <c r="H34" s="41"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -2768,11 +2723,11 @@
       </c>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D36" s="9"/>
       <c r="G36" s="47"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
         <v>45</v>
       </c>
@@ -2801,7 +2756,7 @@
       <c r="L37" s="57"/>
       <c r="M37" s="57"/>
     </row>
-    <row r="38" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42" t="s">
         <v>45</v>
       </c>
@@ -2830,7 +2785,7 @@
       <c r="L38" s="57"/>
       <c r="M38" s="57"/>
     </row>
-    <row r="39" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="42" t="s">
         <v>45</v>
       </c>
@@ -2859,7 +2814,7 @@
       <c r="L39" s="57"/>
       <c r="M39" s="57"/>
     </row>
-    <row r="40" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -2874,7 +2829,7 @@
       <c r="L40" s="57"/>
       <c r="M40" s="57"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
         <v>46</v>
       </c>
@@ -2903,7 +2858,7 @@
       <c r="L41" s="57"/>
       <c r="M41" s="57"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
         <v>46</v>
       </c>
@@ -2932,7 +2887,7 @@
       <c r="L42" s="57"/>
       <c r="M42" s="57"/>
     </row>
-    <row r="43" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="42" t="s">
         <v>46</v>
       </c>
@@ -2961,10 +2916,10 @@
       <c r="L43" s="57"/>
       <c r="M43" s="57"/>
     </row>
-    <row r="44" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G44" s="47"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
         <v>47</v>
       </c>
@@ -2988,7 +2943,7 @@
       </c>
       <c r="H45" s="51"/>
     </row>
-    <row r="46" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="42" t="s">
         <v>47</v>
       </c>
@@ -3012,7 +2967,7 @@
       </c>
       <c r="H46" s="51"/>
     </row>
-    <row r="47" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="42" t="s">
         <v>47</v>
       </c>
@@ -3036,7 +2991,7 @@
       </c>
       <c r="H47" s="51"/>
     </row>
-    <row r="48" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="42" t="s">
         <v>47</v>
       </c>
@@ -3060,7 +3015,7 @@
       </c>
       <c r="H48" s="51"/>
     </row>
-    <row r="49" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="42" t="s">
         <v>47</v>
       </c>
@@ -3084,7 +3039,7 @@
       </c>
       <c r="H49" s="51"/>
     </row>
-    <row r="50" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="42" t="s">
         <v>47</v>
       </c>
@@ -3108,7 +3063,7 @@
       </c>
       <c r="H50" s="51"/>
     </row>
-    <row r="51" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="42" t="s">
         <v>47</v>
       </c>
@@ -3132,7 +3087,7 @@
       </c>
       <c r="H51" s="51"/>
     </row>
-    <row r="52" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
@@ -3142,7 +3097,7 @@
       <c r="G52" s="59"/>
       <c r="H52" s="51"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
         <v>48</v>
       </c>
@@ -3167,7 +3122,7 @@
       <c r="H53" s="51"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="42" t="s">
         <v>48</v>
       </c>
@@ -3191,7 +3146,7 @@
       </c>
       <c r="H54" s="51"/>
     </row>
-    <row r="55" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="42" t="s">
         <v>48</v>
       </c>
@@ -3215,7 +3170,7 @@
       </c>
       <c r="H55" s="51"/>
     </row>
-    <row r="56" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="42" t="s">
         <v>48</v>
       </c>
@@ -3239,7 +3194,7 @@
       </c>
       <c r="H56" s="51"/>
     </row>
-    <row r="57" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="42" t="s">
         <v>48</v>
       </c>
@@ -3263,7 +3218,7 @@
       </c>
       <c r="H57" s="51"/>
     </row>
-    <row r="58" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="42" t="s">
         <v>48</v>
       </c>
@@ -3287,7 +3242,7 @@
       </c>
       <c r="H58" s="51"/>
     </row>
-    <row r="59" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="42" t="s">
         <v>48</v>
       </c>
@@ -3311,12 +3266,12 @@
       </c>
       <c r="H59" s="51"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
       <c r="G60" s="47"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>49</v>
       </c>
@@ -3333,15 +3288,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G62" s="47" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G63" s="47"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>50</v>
       </c>
@@ -3370,7 +3325,7 @@
       <c r="L64" s="41"/>
       <c r="M64" s="41"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="42" t="s">
         <v>50</v>
       </c>
@@ -3399,10 +3354,10 @@
       <c r="L65" s="41"/>
       <c r="M65" s="41"/>
     </row>
-    <row r="66" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G66" s="47"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -3412,11 +3367,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="30" t="s">
         <v>51</v>
       </c>
@@ -3443,7 +3398,7 @@
       <c r="J69" s="49"/>
       <c r="K69" s="49"/>
     </row>
-    <row r="70" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="42" t="s">
         <v>51</v>
       </c>
@@ -3470,7 +3425,7 @@
       <c r="J70" s="49"/>
       <c r="K70" s="49"/>
     </row>
-    <row r="71" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="42" t="s">
         <v>51</v>
       </c>
@@ -3497,7 +3452,7 @@
       <c r="J71" s="49"/>
       <c r="K71" s="49"/>
     </row>
-    <row r="72" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
         <v>51</v>
       </c>
@@ -3524,7 +3479,7 @@
       <c r="J72" s="49"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="42" t="s">
         <v>51</v>
       </c>
@@ -3551,7 +3506,7 @@
       <c r="J73" s="49"/>
       <c r="K73" s="49"/>
     </row>
-    <row r="74" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="42" t="s">
         <v>51</v>
       </c>
@@ -3578,7 +3533,7 @@
       <c r="J74" s="49"/>
       <c r="K74" s="49"/>
     </row>
-    <row r="75" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="42" t="s">
         <v>51</v>
       </c>
@@ -3605,7 +3560,7 @@
       <c r="J75" s="49"/>
       <c r="K75" s="49"/>
     </row>
-    <row r="76" spans="1:13" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="42" t="s">
         <v>51</v>
       </c>
@@ -3632,7 +3587,7 @@
       <c r="J76" s="64"/>
       <c r="K76" s="64"/>
     </row>
-    <row r="77" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E77" s="49"/>
       <c r="F77" s="49"/>
       <c r="G77" s="68" t="s">
@@ -3643,7 +3598,7 @@
       <c r="J77" s="49"/>
       <c r="K77" s="49"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="30" t="s">
         <v>52</v>
       </c>
@@ -3667,7 +3622,7 @@
       </c>
       <c r="H78" s="49"/>
     </row>
-    <row r="79" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="42" t="s">
         <v>52</v>
       </c>
@@ -3691,7 +3646,7 @@
       </c>
       <c r="H79" s="49"/>
     </row>
-    <row r="80" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="42" t="s">
         <v>52</v>
       </c>
@@ -3715,7 +3670,7 @@
       </c>
       <c r="H80" s="49"/>
     </row>
-    <row r="81" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="42" t="s">
         <v>52</v>
       </c>
@@ -3739,7 +3694,7 @@
       </c>
       <c r="H81" s="49"/>
     </row>
-    <row r="82" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="42" t="s">
         <v>52</v>
       </c>
@@ -3763,7 +3718,7 @@
       </c>
       <c r="H82" s="49"/>
     </row>
-    <row r="83" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="42" t="s">
         <v>52</v>
       </c>
@@ -3787,7 +3742,7 @@
       </c>
       <c r="H83" s="49"/>
     </row>
-    <row r="84" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="42" t="s">
         <v>52</v>
       </c>
@@ -3811,7 +3766,7 @@
       </c>
       <c r="H84" s="49"/>
     </row>
-    <row r="85" spans="1:8" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="42" t="s">
         <v>52</v>
       </c>
@@ -3835,7 +3790,7 @@
       </c>
       <c r="H85" s="66"/>
     </row>
-    <row r="86" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E86" s="49"/>
       <c r="F86" s="49"/>
       <c r="G86" s="69" t="s">
@@ -3843,13 +3798,13 @@
       </c>
       <c r="H86" s="68"/>
     </row>
-    <row r="87" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E87" s="49"/>
       <c r="F87" s="49"/>
       <c r="G87" s="69"/>
       <c r="H87" s="68"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="30" t="s">
         <v>53</v>
       </c>
@@ -3873,7 +3828,7 @@
       </c>
       <c r="H88" s="67"/>
     </row>
-    <row r="89" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="42" t="s">
         <v>53</v>
       </c>
@@ -3897,7 +3852,7 @@
       </c>
       <c r="H89" s="67"/>
     </row>
-    <row r="90" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="42" t="s">
         <v>53</v>
       </c>
@@ -3921,7 +3876,7 @@
       </c>
       <c r="H90" s="67"/>
     </row>
-    <row r="91" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="42" t="s">
         <v>53</v>
       </c>
@@ -3945,7 +3900,7 @@
       </c>
       <c r="H91" s="67"/>
     </row>
-    <row r="92" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="42" t="s">
         <v>53</v>
       </c>
@@ -3969,7 +3924,7 @@
       </c>
       <c r="H92" s="67"/>
     </row>
-    <row r="93" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="42" t="s">
         <v>53</v>
       </c>
@@ -3993,7 +3948,7 @@
       </c>
       <c r="H93" s="67"/>
     </row>
-    <row r="94" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="42" t="s">
         <v>53</v>
       </c>
@@ -4007,7 +3962,7 @@
         <v>1102</v>
       </c>
       <c r="E94" s="68" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F94" s="87">
         <v>117</v>
@@ -4017,7 +3972,7 @@
       </c>
       <c r="H94" s="67"/>
     </row>
-    <row r="95" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="42" t="s">
         <v>53</v>
       </c>
@@ -4031,7 +3986,7 @@
         <v>1102</v>
       </c>
       <c r="E95" s="68" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F95" s="87">
         <v>700</v>
@@ -4041,7 +3996,7 @@
       </c>
       <c r="H95" s="67"/>
     </row>
-    <row r="96" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="42" t="s">
         <v>53</v>
       </c>
@@ -4055,7 +4010,7 @@
         <v>1102</v>
       </c>
       <c r="E96" s="68" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F96" s="87">
         <v>1.08</v>
@@ -4065,7 +4020,7 @@
       </c>
       <c r="H96" s="67"/>
     </row>
-    <row r="97" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="42" t="s">
         <v>53</v>
       </c>
@@ -4079,7 +4034,7 @@
         <v>1102</v>
       </c>
       <c r="E97" s="68" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F97" s="87">
         <v>3.9E-2</v>
@@ -4089,7 +4044,7 @@
       </c>
       <c r="H97" s="67"/>
     </row>
-    <row r="98" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E98" s="68"/>
       <c r="F98" s="75"/>
       <c r="G98" s="69" t="s">
@@ -4097,7 +4052,7 @@
       </c>
       <c r="H98" s="67"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="30" t="s">
         <v>54</v>
       </c>
@@ -4120,7 +4075,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="42" t="s">
         <v>54</v>
       </c>
@@ -4143,7 +4098,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="42" t="s">
         <v>54</v>
       </c>
@@ -4166,7 +4121,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="42" t="s">
         <v>54</v>
       </c>
@@ -4189,7 +4144,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="42" t="s">
         <v>54</v>
       </c>
@@ -4212,7 +4167,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="42" t="s">
         <v>54</v>
       </c>
@@ -4235,7 +4190,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="42" t="s">
         <v>54</v>
       </c>
@@ -4249,7 +4204,7 @@
         <v>1104</v>
       </c>
       <c r="E105" s="68" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F105" s="87">
         <v>117</v>
@@ -4258,7 +4213,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="42" t="s">
         <v>54</v>
       </c>
@@ -4272,7 +4227,7 @@
         <v>1104</v>
       </c>
       <c r="E106" s="68" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F106" s="87">
         <v>700</v>
@@ -4281,7 +4236,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="42" t="s">
         <v>54</v>
       </c>
@@ -4295,7 +4250,7 @@
         <v>1104</v>
       </c>
       <c r="E107" s="68" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F107" s="87">
         <v>1.08</v>
@@ -4304,7 +4259,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="42" t="s">
         <v>54</v>
       </c>
@@ -4318,7 +4273,7 @@
         <v>1104</v>
       </c>
       <c r="E108" s="68" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F108" s="87">
         <v>3.9E-2</v>
@@ -4327,14 +4282,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E109" s="68"/>
       <c r="F109" s="75"/>
       <c r="G109" s="69" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="30" t="s">
         <v>55</v>
       </c>
@@ -4357,7 +4312,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>55</v>
       </c>
@@ -4380,7 +4335,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>55</v>
       </c>
@@ -4403,7 +4358,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>55</v>
       </c>
@@ -4426,7 +4381,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>55</v>
       </c>
@@ -4449,7 +4404,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>55</v>
       </c>
@@ -4472,7 +4427,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>55</v>
       </c>
@@ -4495,7 +4450,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>55</v>
       </c>
@@ -4518,7 +4473,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>55</v>
       </c>
@@ -4541,7 +4496,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>55</v>
       </c>
@@ -4564,7 +4519,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>55</v>
       </c>
@@ -4587,7 +4542,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>55</v>
       </c>
@@ -4610,7 +4565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>55</v>
       </c>
@@ -4633,7 +4588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>55</v>
       </c>
@@ -4656,7 +4611,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>55</v>
       </c>
@@ -4679,7 +4634,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>55</v>
       </c>
@@ -4702,7 +4657,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>55</v>
       </c>
@@ -4725,7 +4680,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>55</v>
       </c>
@@ -4748,7 +4703,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>55</v>
       </c>
@@ -4771,7 +4726,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>55</v>
       </c>
@@ -4794,7 +4749,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>55</v>
       </c>
@@ -4817,7 +4772,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>55</v>
       </c>
@@ -4840,7 +4795,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>55</v>
       </c>
@@ -4863,7 +4818,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>55</v>
       </c>
@@ -4886,7 +4841,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>56</v>
       </c>
@@ -4915,7 +4870,7 @@
       <c r="L135" s="41"/>
       <c r="M135" s="41"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="42" t="s">
         <v>56</v>
       </c>
@@ -4944,10 +4899,10 @@
       <c r="L136" s="41"/>
       <c r="M136" s="41"/>
     </row>
-    <row r="137" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G137" s="47"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="30" t="s">
         <v>57</v>
       </c>
@@ -4971,7 +4926,7 @@
       </c>
       <c r="H138" s="51"/>
     </row>
-    <row r="139" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="42" t="s">
         <v>57</v>
       </c>
@@ -4995,7 +4950,7 @@
       </c>
       <c r="H139" s="51"/>
     </row>
-    <row r="140" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="42" t="s">
         <v>57</v>
       </c>
@@ -5019,7 +4974,7 @@
       </c>
       <c r="H140" s="51"/>
     </row>
-    <row r="141" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="42" t="s">
         <v>57</v>
       </c>
@@ -5043,7 +4998,7 @@
       </c>
       <c r="H141" s="51"/>
     </row>
-    <row r="142" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="42" t="s">
         <v>57</v>
       </c>
@@ -5067,7 +5022,7 @@
       </c>
       <c r="H142" s="51"/>
     </row>
-    <row r="143" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="42" t="s">
         <v>57</v>
       </c>
@@ -5091,7 +5046,7 @@
       </c>
       <c r="H143" s="51"/>
     </row>
-    <row r="144" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="42" t="s">
         <v>57</v>
       </c>
@@ -5115,7 +5070,7 @@
       </c>
       <c r="H144" s="51"/>
     </row>
-    <row r="145" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="42" t="s">
         <v>57</v>
       </c>
@@ -5139,11 +5094,11 @@
       </c>
       <c r="H145" s="51"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B146" s="41"/>
       <c r="G146" s="47"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="30" t="s">
         <v>58</v>
       </c>
@@ -5166,7 +5121,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="42" t="s">
         <v>58</v>
       </c>
@@ -5189,7 +5144,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="42" t="s">
         <v>58</v>
       </c>
@@ -5209,12 +5164,12 @@
         <v>-39.473833333333332</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="42"/>
       <c r="E150" s="44"/>
       <c r="G150" s="47"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="30" t="s">
         <v>59</v>
       </c>
@@ -5237,7 +5192,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="42" t="s">
         <v>59</v>
       </c>
@@ -5260,7 +5215,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="42" t="s">
         <v>59</v>
       </c>
@@ -5281,12 +5236,12 @@
       </c>
       <c r="G153" s="29"/>
     </row>
-    <row r="154" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="42"/>
       <c r="E154" s="44"/>
       <c r="G154" s="47"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="30" t="s">
         <v>60</v>
       </c>
@@ -5309,7 +5264,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="42" t="s">
         <v>60</v>
       </c>
@@ -5332,7 +5287,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="42" t="s">
         <v>60</v>
       </c>
@@ -5353,12 +5308,12 @@
       </c>
       <c r="G157" s="29"/>
     </row>
-    <row r="158" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="42"/>
       <c r="E158" s="44"/>
       <c r="G158" s="47"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="30" t="s">
         <v>61</v>
       </c>
@@ -5381,7 +5336,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="42" t="s">
         <v>61</v>
       </c>
@@ -5404,7 +5359,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="42" t="s">
         <v>61</v>
       </c>
@@ -5425,12 +5380,12 @@
       </c>
       <c r="G161" s="29"/>
     </row>
-    <row r="162" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="42"/>
       <c r="E162" s="44"/>
       <c r="G162" s="47"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="30" t="s">
         <v>62</v>
       </c>
@@ -5453,7 +5408,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="42" t="s">
         <v>62</v>
       </c>
@@ -5476,7 +5431,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="42" t="s">
         <v>62</v>
       </c>
@@ -5497,12 +5452,12 @@
       </c>
       <c r="G165" s="29"/>
     </row>
-    <row r="166" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="42"/>
       <c r="E166" s="44"/>
       <c r="G166" s="47"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="30" t="s">
         <v>63</v>
       </c>
@@ -5525,7 +5480,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="42" t="s">
         <v>63</v>
       </c>
@@ -5548,7 +5503,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="42" t="s">
         <v>63</v>
       </c>
@@ -5569,12 +5524,12 @@
       </c>
       <c r="G169" s="29"/>
     </row>
-    <row r="170" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="42"/>
       <c r="E170" s="44"/>
       <c r="G170" s="47"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="30" t="s">
         <v>64</v>
       </c>
@@ -5597,7 +5552,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="42" t="s">
         <v>64</v>
       </c>
@@ -5620,7 +5575,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="42" t="s">
         <v>64</v>
       </c>
@@ -5641,12 +5596,12 @@
       </c>
       <c r="G173" s="29"/>
     </row>
-    <row r="174" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="42"/>
       <c r="E174" s="44"/>
       <c r="G174" s="47"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="30" t="s">
         <v>65</v>
       </c>
@@ -5669,7 +5624,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="42" t="s">
         <v>65</v>
       </c>
@@ -5692,7 +5647,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="42" t="s">
         <v>65</v>
       </c>
@@ -5713,12 +5668,12 @@
       </c>
       <c r="G177" s="29"/>
     </row>
-    <row r="178" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="42"/>
       <c r="E178" s="44"/>
       <c r="G178" s="47"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="30" t="s">
         <v>66</v>
       </c>
@@ -5738,10 +5693,10 @@
         <v>1000</v>
       </c>
       <c r="G179" s="47" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="42" t="s">
         <v>66</v>
       </c>
@@ -5764,7 +5719,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="42" t="s">
         <v>66</v>
       </c>
@@ -5785,14 +5740,14 @@
       </c>
       <c r="G181" s="29"/>
     </row>
-    <row r="182" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="42"/>
       <c r="E182" s="44"/>
       <c r="G182" s="47"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="30" t="s">
-        <v>237</v>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="93" t="s">
+        <v>264</v>
       </c>
       <c r="B183" s="41" t="s">
         <v>117</v>
@@ -5813,9 +5768,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="42" t="s">
-        <v>237</v>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="94" t="s">
+        <v>264</v>
       </c>
       <c r="B184" s="42" t="s">
         <v>117</v>
@@ -5836,9 +5791,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="185" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="42" t="s">
-        <v>237</v>
+    <row r="185" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="94" t="s">
+        <v>264</v>
       </c>
       <c r="B185" s="42" t="s">
         <v>117</v>
@@ -5857,14 +5812,14 @@
       </c>
       <c r="G185" s="29"/>
     </row>
-    <row r="186" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="42"/>
       <c r="E186" s="44"/>
       <c r="G186" s="47"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="30" t="s">
-        <v>236</v>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="93" t="s">
+        <v>265</v>
       </c>
       <c r="B187" s="41" t="s">
         <v>117</v>
@@ -5885,9 +5840,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="42" t="s">
-        <v>236</v>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="94" t="s">
+        <v>265</v>
       </c>
       <c r="B188" s="42" t="s">
         <v>117</v>
@@ -5908,9 +5863,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="189" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="42" t="s">
-        <v>236</v>
+    <row r="189" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="94" t="s">
+        <v>265</v>
       </c>
       <c r="B189" s="42" t="s">
         <v>117</v>
@@ -5929,14 +5884,14 @@
       </c>
       <c r="G189" s="29"/>
     </row>
-    <row r="190" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="42"/>
       <c r="E190" s="44"/>
       <c r="G190" s="47"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="30" t="s">
-        <v>235</v>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="93" t="s">
+        <v>266</v>
       </c>
       <c r="B191" s="41" t="s">
         <v>117</v>
@@ -5957,9 +5912,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="42" t="s">
-        <v>235</v>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="94" t="s">
+        <v>266</v>
       </c>
       <c r="B192" s="42" t="s">
         <v>117</v>
@@ -5980,9 +5935,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="42" t="s">
-        <v>235</v>
+    <row r="193" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="94" t="s">
+        <v>266</v>
       </c>
       <c r="B193" s="42" t="s">
         <v>117</v>
@@ -6001,13 +5956,13 @@
       </c>
       <c r="G193" s="29"/>
     </row>
-    <row r="194" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B194" s="41"/>
       <c r="C194" s="41"/>
       <c r="E194" s="36"/>
       <c r="G194" s="40"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="30" t="s">
         <v>67</v>
       </c>
@@ -6030,7 +5985,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="42" t="s">
         <v>67</v>
       </c>
@@ -6053,7 +6008,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="42" t="s">
         <v>67</v>
       </c>
@@ -6076,7 +6031,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="42" t="s">
         <v>67</v>
       </c>
@@ -6099,7 +6054,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="42" t="s">
         <v>67</v>
       </c>
@@ -6122,7 +6077,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="42" t="s">
         <v>67</v>
       </c>
@@ -6145,7 +6100,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="42" t="s">
         <v>67</v>
       </c>
@@ -6168,7 +6123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="30" t="s">
         <v>68</v>
       </c>
@@ -6191,7 +6146,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="42" t="s">
         <v>68</v>
       </c>
@@ -6214,7 +6169,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="42" t="s">
         <v>68</v>
       </c>
@@ -6237,7 +6192,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="42" t="s">
         <v>68</v>
       </c>
@@ -6260,7 +6215,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="42" t="s">
         <v>68</v>
       </c>
@@ -6283,7 +6238,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="42" t="s">
         <v>68</v>
       </c>
@@ -6306,7 +6261,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="42" t="s">
         <v>68</v>
       </c>
@@ -6329,7 +6284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="42"/>
       <c r="B210" s="42"/>
       <c r="C210" s="42"/>
@@ -6337,91 +6292,91 @@
       <c r="F210" s="45"/>
       <c r="G210" s="47"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="41"/>
       <c r="B211" s="41"/>
       <c r="D211" s="9"/>
       <c r="G211" s="83" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="41"/>
       <c r="B212" s="41"/>
       <c r="C212" s="41"/>
       <c r="D212" s="9"/>
       <c r="G212" s="83" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="41"/>
       <c r="B213" s="41"/>
       <c r="C213" s="41"/>
       <c r="D213" s="9"/>
       <c r="G213" s="83" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="41"/>
       <c r="B214" s="41"/>
       <c r="C214" s="41"/>
       <c r="D214" s="9"/>
       <c r="G214" s="83" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="41"/>
       <c r="B215" s="41"/>
       <c r="C215" s="41"/>
       <c r="D215" s="9"/>
       <c r="G215" s="83" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="41"/>
       <c r="B216" s="41"/>
       <c r="C216" s="41"/>
       <c r="D216" s="9"/>
       <c r="G216" s="83" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="41"/>
       <c r="B217" s="41"/>
       <c r="C217" s="41"/>
       <c r="D217" s="9"/>
       <c r="G217" s="83" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="41"/>
       <c r="B218" s="41"/>
       <c r="C218" s="41"/>
       <c r="D218" s="9"/>
       <c r="G218" s="83" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="41"/>
       <c r="B219" s="41"/>
       <c r="C219" s="41"/>
       <c r="D219" s="9"/>
       <c r="G219" s="83" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B220" s="41"/>
       <c r="C220" s="41"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="30" t="s">
         <v>69</v>
       </c>
@@ -6441,10 +6396,10 @@
         <v>59.933733333333336</v>
       </c>
       <c r="G221" s="47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="42" t="s">
         <v>69</v>
       </c>
@@ -6464,7 +6419,7 @@
         <v>-39.473833333333332</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="42" t="s">
         <v>69</v>
       </c>
@@ -6487,7 +6442,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="42" t="s">
         <v>69</v>
       </c>
@@ -6510,7 +6465,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="42" t="s">
         <v>69</v>
       </c>
@@ -6533,7 +6488,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="42" t="s">
         <v>69</v>
       </c>
@@ -6556,7 +6511,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="42" t="s">
         <v>69</v>
       </c>
@@ -6579,13 +6534,13 @@
         <v>209</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B228" s="42"/>
       <c r="C228" s="42"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="91" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B229" s="47" t="s">
         <v>117</v>
@@ -6594,17 +6549,17 @@
         <v>1</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E229" s="41"/>
       <c r="F229" s="41"/>
       <c r="G229" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="91" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B230" s="47" t="s">
         <v>117</v>
@@ -6613,22 +6568,22 @@
         <v>1</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E230" s="41"/>
       <c r="F230" s="41"/>
       <c r="G230" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="91"/>
       <c r="B231" s="47"/>
       <c r="C231" s="47"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="91" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B232" s="47" t="s">
         <v>117</v>
@@ -6637,17 +6592,17 @@
         <v>1</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E232" s="41"/>
       <c r="F232" s="41"/>
       <c r="G232" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="91" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B233" s="47" t="s">
         <v>117</v>
@@ -6656,17 +6611,17 @@
         <v>1</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E233" s="41"/>
       <c r="F233" s="41"/>
       <c r="G233" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="91" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B234" s="47" t="s">
         <v>117</v>
@@ -6675,12 +6630,12 @@
         <v>1</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E234" s="41"/>
       <c r="F234" s="41"/>
       <c r="G234" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6697,9 +6652,9 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="68">
         <v>-0.121556</v>
       </c>
@@ -6815,7 +6770,7 @@
         <v>7.8557000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="68">
         <v>-0.117962</v>
       </c>
@@ -6931,7 +6886,7 @@
         <v>6.6919999999999993E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>-9.8946000000000006E-2</v>
       </c>
@@ -7047,7 +7002,7 @@
         <v>5.1117999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>-7.7002000000000001E-2</v>
       </c>
@@ -7163,7 +7118,7 @@
         <v>3.7635000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>-6.0537000000000001E-2</v>
       </c>
@@ -7279,7 +7234,7 @@
         <v>2.6692E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>-4.8386999999999999E-2</v>
       </c>
@@ -7395,7 +7350,7 @@
         <v>2.0171999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>-4.07E-2</v>
       </c>
@@ -7511,7 +7466,7 @@
         <v>1.5422999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>-3.4627999999999999E-2</v>
       </c>
@@ -7627,7 +7582,7 @@
         <v>1.2585000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <v>-3.0339000000000001E-2</v>
       </c>
@@ -7743,7 +7698,7 @@
         <v>1.1023E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
         <v>-2.7439999999999999E-2</v>
       </c>
@@ -7859,7 +7814,7 @@
         <v>9.8329999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="68">
         <v>-2.2494E-2</v>
       </c>
@@ -7975,7 +7930,7 @@
         <v>9.3670000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="68">
         <v>-2.1489000000000001E-2</v>
       </c>
@@ -8091,7 +8046,7 @@
         <v>8.5210000000000008E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="68">
         <v>-1.9352000000000001E-2</v>
       </c>
@@ -8207,7 +8162,7 @@
         <v>8.2830000000000004E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="68">
         <v>-1.7070999999999999E-2</v>
       </c>
@@ -8323,7 +8278,7 @@
         <v>7.6350000000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="68">
         <v>-1.5476E-2</v>
       </c>
@@ -8439,7 +8394,7 @@
         <v>7.2690000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="68">
         <v>-1.4164E-2</v>
       </c>
@@ -8555,7 +8510,7 @@
         <v>6.8349999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="68">
         <v>-1.3547999999999999E-2</v>
       </c>
@@ -8671,7 +8626,7 @@
         <v>6.496E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="68">
         <v>-1.2149E-2</v>
       </c>
@@ -8787,7 +8742,7 @@
         <v>6.1060000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="68">
         <v>-1.1689E-2</v>
       </c>
@@ -8903,7 +8858,7 @@
         <v>5.836E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="68">
         <v>-1.1445E-2</v>
       </c>
@@ -9019,7 +8974,7 @@
         <v>5.8840000000000003E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="68">
         <v>-1.0385E-2</v>
       </c>
@@ -9135,7 +9090,7 @@
         <v>5.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="68">
         <v>-1.0220999999999999E-2</v>
       </c>
@@ -9251,7 +9206,7 @@
         <v>5.1200000000000004E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="68">
         <v>-9.4999999999999998E-3</v>
       </c>
@@ -9367,7 +9322,7 @@
         <v>4.8510000000000003E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="68">
         <v>-8.8859999999999998E-3</v>
       </c>
@@ -9483,7 +9438,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="68">
         <v>-8.2690000000000003E-3</v>
       </c>
@@ -9599,7 +9554,7 @@
         <v>4.248E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="68">
         <v>-7.8659999999999997E-3</v>
       </c>
@@ -9715,7 +9670,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="68">
         <v>-7.6350000000000003E-3</v>
       </c>
@@ -9831,7 +9786,7 @@
         <v>3.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="68">
         <v>-7.097E-3</v>
       </c>
@@ -9947,7 +9902,7 @@
         <v>3.7529999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="68">
         <v>-6.1910000000000003E-3</v>
       </c>
@@ -10063,7 +10018,7 @@
         <v>3.7109999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="68">
         <v>-6.2449999999999997E-3</v>
       </c>
@@ -10179,7 +10134,7 @@
         <v>3.4880000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="68">
         <v>-6.1279999999999998E-3</v>
       </c>
@@ -10295,7 +10250,7 @@
         <v>3.3969999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="68">
         <v>-6.0470000000000003E-3</v>
       </c>
@@ -10411,7 +10366,7 @@
         <v>3.424E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="68">
         <v>-5.4440000000000001E-3</v>
       </c>
@@ -10527,7 +10482,7 @@
         <v>3.29E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="68">
         <v>-5.385E-3</v>
       </c>
@@ -10643,7 +10598,7 @@
         <v>3.3249999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="68">
         <v>-5.4720000000000003E-3</v>
       </c>
@@ -10759,7 +10714,7 @@
         <v>3.241E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="68">
         <v>-5.13E-3</v>
       </c>
@@ -10875,7 +10830,7 @@
         <v>3.2880000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="68">
         <v>-5.2339999999999999E-3</v>
       </c>
@@ -10991,7 +10946,7 @@
         <v>3.2659999999999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="68">
         <v>-4.8269999999999997E-3</v>
       </c>
@@ -11107,7 +11062,7 @@
         <v>3.1770000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="68">
         <v>-4.9560000000000003E-3</v>
       </c>
@@ -11223,7 +11178,7 @@
         <v>3.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="68">
         <v>-4.6480000000000002E-3</v>
       </c>
@@ -11339,7 +11294,7 @@
         <v>3.2299999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="68">
         <v>-4.4549999999999998E-3</v>
       </c>
@@ -11455,7 +11410,7 @@
         <v>3.3470000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="68">
         <v>-4.5849999999999997E-3</v>
       </c>
@@ -11571,7 +11526,7 @@
         <v>3.4280000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="68">
         <v>-4.4689999999999999E-3</v>
       </c>
@@ -11687,7 +11642,7 @@
         <v>3.5409999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="68">
         <v>-4.2490000000000002E-3</v>
       </c>
@@ -11803,7 +11758,7 @@
         <v>3.5790000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="68">
         <v>-4.1060000000000003E-3</v>
       </c>
@@ -11919,7 +11874,7 @@
         <v>3.7090000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="68">
         <v>-3.9880000000000002E-3</v>
       </c>
@@ -12035,7 +11990,7 @@
         <v>3.7160000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="68">
         <v>-4.0369999999999998E-3</v>
       </c>
@@ -12151,7 +12106,7 @@
         <v>3.7720000000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="68">
         <v>-4.1399999999999996E-3</v>
       </c>
@@ -12267,7 +12222,7 @@
         <v>3.7520000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="68">
         <v>-4.15E-3</v>
       </c>
@@ -12383,7 +12338,7 @@
         <v>3.725E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="68">
         <v>-4.0000000000000001E-3</v>
       </c>
@@ -12499,7 +12454,7 @@
         <v>3.797E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="68">
         <v>-3.6649999999999999E-3</v>
       </c>
@@ -12615,7 +12570,7 @@
         <v>3.6800000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="68">
         <v>-3.6329999999999999E-3</v>
       </c>
@@ -12731,7 +12686,7 @@
         <v>3.46E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="68">
         <v>-3.5660000000000002E-3</v>
       </c>
@@ -12847,7 +12802,7 @@
         <v>3.4680000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="68">
         <v>-3.421E-3</v>
       </c>
@@ -12963,7 +12918,7 @@
         <v>3.4190000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="68">
         <v>-3.431E-3</v>
       </c>
@@ -13079,7 +13034,7 @@
         <v>3.3249999999999998E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="68">
         <v>-3.369E-3</v>
       </c>
@@ -13195,7 +13150,7 @@
         <v>3.104E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="68">
         <v>-3.1229999999999999E-3</v>
       </c>
@@ -13311,7 +13266,7 @@
         <v>3.068E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="68">
         <v>-2.8700000000000002E-3</v>
       </c>
@@ -13427,7 +13382,7 @@
         <v>2.9759999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="68">
         <v>-2.6440000000000001E-3</v>
       </c>
@@ -13543,7 +13498,7 @@
         <v>2.97E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="68">
         <v>-2.6589999999999999E-3</v>
       </c>
@@ -13659,7 +13614,7 @@
         <v>2.764E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="68">
         <v>-2.5079999999999998E-3</v>
       </c>
@@ -13775,7 +13730,7 @@
         <v>2.679E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="68">
         <v>-2.6940000000000002E-3</v>
       </c>
@@ -13891,7 +13846,7 @@
         <v>2.7049999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="68">
         <v>-2.8679999999999999E-3</v>
       </c>
@@ -14007,7 +13962,7 @@
         <v>2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="68">
         <v>-2.774E-3</v>
       </c>
@@ -14123,7 +14078,7 @@
         <v>2.4220000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="68">
         <v>-2.8700000000000002E-3</v>
       </c>
@@ -14239,7 +14194,7 @@
         <v>2.3809999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" s="68">
         <v>-3.2260000000000001E-3</v>
       </c>
@@ -14355,7 +14310,7 @@
         <v>2.3340000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="68">
         <v>-3.0119999999999999E-3</v>
       </c>
@@ -14471,7 +14426,7 @@
         <v>2.3389999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="68">
         <v>-3.1900000000000001E-3</v>
       </c>
@@ -14587,7 +14542,7 @@
         <v>2.2269999999999998E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="68">
         <v>-3.0790000000000001E-3</v>
       </c>
@@ -14703,7 +14658,7 @@
         <v>2.2650000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="68">
         <v>-3.0709999999999999E-3</v>
       </c>
@@ -14819,7 +14774,7 @@
         <v>2.225E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="68">
         <v>-3.0590000000000001E-3</v>
       </c>
@@ -14935,7 +14890,7 @@
         <v>2.284E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="68">
         <v>-2.9889999999999999E-3</v>
       </c>
@@ -15051,7 +15006,7 @@
         <v>2.3210000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="68">
         <v>-3.3969999999999998E-3</v>
       </c>
@@ -15167,7 +15122,7 @@
         <v>2.405E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" s="68">
         <v>-3.1319999999999998E-3</v>
       </c>
@@ -15283,7 +15238,7 @@
         <v>2.4359999999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75" s="68">
         <v>-3.5270000000000002E-3</v>
       </c>
@@ -15399,7 +15354,7 @@
         <v>2.5469999999999998E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76" s="68">
         <v>-3.4840000000000001E-3</v>
       </c>
@@ -15515,7 +15470,7 @@
         <v>2.647E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="68">
         <v>-4.2360000000000002E-3</v>
       </c>
@@ -15631,7 +15586,7 @@
         <v>2.575E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78" s="68">
         <v>-3.888E-3</v>
       </c>
@@ -15747,7 +15702,7 @@
         <v>2.6199999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79" s="68">
         <v>-4.3499999999999997E-3</v>
       </c>
@@ -15874,9 +15829,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="68">
         <v>6.0010000000000003E-3</v>
       </c>
@@ -15992,7 +15947,7 @@
         <v>-1.1684E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="68">
         <v>4.5640000000000003E-3</v>
       </c>
@@ -16108,7 +16063,7 @@
         <v>-1.03E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>3.6970000000000002E-3</v>
       </c>
@@ -16224,7 +16179,7 @@
         <v>-8.5199999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>2.1440000000000001E-3</v>
       </c>
@@ -16340,7 +16295,7 @@
         <v>-6.7949999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>3.3319999999999999E-3</v>
       </c>
@@ -16456,7 +16411,7 @@
         <v>-6.7780000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>1.8109999999999999E-3</v>
       </c>
@@ -16572,7 +16527,7 @@
         <v>-5.5620000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6.1700000000000004E-4</v>
       </c>
@@ -16688,7 +16643,7 @@
         <v>-5.5459999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>-1.057E-3</v>
       </c>
@@ -16804,7 +16759,7 @@
         <v>-5.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <v>3.735E-3</v>
       </c>
@@ -16920,7 +16875,7 @@
         <v>-4.607E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
         <v>1.5870000000000001E-3</v>
       </c>
@@ -17036,7 +16991,7 @@
         <v>-4.365E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="68">
         <v>1.31E-3</v>
       </c>
@@ -17152,7 +17107,7 @@
         <v>-4.0229999999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="68">
         <v>1.8289999999999999E-3</v>
       </c>
@@ -17268,7 +17223,7 @@
         <v>-3.764E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="68">
         <v>6.0499999999999996E-4</v>
       </c>
@@ -17384,7 +17339,7 @@
         <v>-3.5170000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="68">
         <v>3.4659999999999999E-3</v>
       </c>
@@ -17500,7 +17455,7 @@
         <v>-3.336E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="68">
         <v>-2.0799999999999999E-4</v>
       </c>
@@ -17616,7 +17571,7 @@
         <v>-2.8E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="68">
         <v>6.11E-4</v>
       </c>
@@ -17732,7 +17687,7 @@
         <v>-2.5790000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="68">
         <v>8.25E-4</v>
       </c>
@@ -17848,7 +17803,7 @@
         <v>-2.7390000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="68">
         <v>-1.168E-3</v>
       </c>
@@ -17964,7 +17919,7 @@
         <v>-2.4009999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="68">
         <v>-1.168E-3</v>
       </c>
@@ -18080,7 +18035,7 @@
         <v>-2.287E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="68">
         <v>-2.92E-4</v>
       </c>
@@ -18196,7 +18151,7 @@
         <v>-2.134E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="68">
         <v>-1.622E-3</v>
       </c>
@@ -18312,7 +18267,7 @@
         <v>-2.2230000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="68">
         <v>-6.3599999999999996E-4</v>
       </c>
@@ -18428,7 +18383,7 @@
         <v>-1.699E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="68">
         <v>-7.9999999999999996E-6</v>
       </c>
@@ -18544,7 +18499,7 @@
         <v>-1.779E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="68">
         <v>-9.4300000000000004E-4</v>
       </c>
@@ -18660,7 +18615,7 @@
         <v>-1.931E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="68">
         <v>-4.3999999999999999E-5</v>
       </c>
@@ -18776,7 +18731,7 @@
         <v>-1.4270000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="68">
         <v>-2.8899999999999998E-4</v>
       </c>
@@ -18892,7 +18847,7 @@
         <v>-1.67E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="68">
         <v>-1.34E-4</v>
       </c>
@@ -19008,7 +18963,7 @@
         <v>-1.6949999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="68">
         <v>-3.6999999999999999E-4</v>
       </c>
@@ -19124,7 +19079,7 @@
         <v>-1.2409999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="68">
         <v>6.8800000000000003E-4</v>
       </c>
@@ -19240,7 +19195,7 @@
         <v>-1.544E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="68">
         <v>2.41E-4</v>
       </c>
@@ -19356,7 +19311,7 @@
         <v>-1.464E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="68">
         <v>2.9E-5</v>
       </c>
@@ -19472,7 +19427,7 @@
         <v>-1.34E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="68">
         <v>1.142E-3</v>
       </c>
@@ -19588,7 +19543,7 @@
         <v>-1.441E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="68">
         <v>5.2099999999999998E-4</v>
       </c>
@@ -19704,7 +19659,7 @@
         <v>-1.444E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="68">
         <v>7.0500000000000001E-4</v>
       </c>
@@ -19820,7 +19775,7 @@
         <v>-1.2340000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="68">
         <v>9.8999999999999999E-4</v>
       </c>
@@ -19936,7 +19891,7 @@
         <v>-1.335E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="68">
         <v>3.0200000000000002E-4</v>
       </c>
@@ -20052,7 +20007,7 @@
         <v>-1.317E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="68">
         <v>1.2689999999999999E-3</v>
       </c>
@@ -20168,7 +20123,7 @@
         <v>-1.2229999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="68">
         <v>1.292E-3</v>
       </c>
@@ -20284,7 +20239,7 @@
         <v>-1.2639999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="68">
         <v>6.8400000000000004E-4</v>
       </c>
@@ -20400,7 +20355,7 @@
         <v>-1.289E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="68">
         <v>1.41E-3</v>
       </c>
@@ -20516,7 +20471,7 @@
         <v>-1.307E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="68">
         <v>1.5219999999999999E-3</v>
       </c>
@@ -20632,7 +20587,7 @@
         <v>-1.1280000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="68">
         <v>1.459E-3</v>
       </c>
@@ -20748,7 +20703,7 @@
         <v>-1.0510000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="68">
         <v>1.537E-3</v>
       </c>
@@ -20864,7 +20819,7 @@
         <v>-9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="68">
         <v>1.317E-3</v>
       </c>
@@ -20980,7 +20935,7 @@
         <v>-9.2000000000000003E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="68">
         <v>1.366E-3</v>
       </c>
@@ -21096,7 +21051,7 @@
         <v>-8.4599999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="68">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -21212,7 +21167,7 @@
         <v>-7.9199999999999995E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="68">
         <v>1.4120000000000001E-3</v>
       </c>
@@ -21328,7 +21283,7 @@
         <v>-7.3999999999999999E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="68">
         <v>1.3860000000000001E-3</v>
       </c>
@@ -21444,7 +21399,7 @@
         <v>-6.9099999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="68">
         <v>1.3209999999999999E-3</v>
       </c>
@@ -21560,7 +21515,7 @@
         <v>-7.6099999999999996E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="68">
         <v>1.598E-3</v>
       </c>
@@ -21676,7 +21631,7 @@
         <v>-5.3200000000000003E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="68">
         <v>1.271E-3</v>
       </c>
@@ -21792,7 +21747,7 @@
         <v>-9.2500000000000004E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="68">
         <v>1.359E-3</v>
       </c>
@@ -21908,7 +21863,7 @@
         <v>-5.6400000000000005E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="68">
         <v>1.2470000000000001E-3</v>
       </c>
@@ -22024,7 +21979,7 @@
         <v>-7.18E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="68">
         <v>1.2329999999999999E-3</v>
       </c>
@@ -22140,7 +22095,7 @@
         <v>-7.5199999999999996E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="68">
         <v>1.751E-3</v>
       </c>
@@ -22256,7 +22211,7 @@
         <v>-5.8399999999999999E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="68">
         <v>1.745E-3</v>
       </c>
@@ -22372,7 +22327,7 @@
         <v>-5.8299999999999997E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="68">
         <v>1.756E-3</v>
       </c>
@@ -22488,7 +22443,7 @@
         <v>-6.2100000000000002E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="68">
         <v>1.714E-3</v>
       </c>
@@ -22604,7 +22559,7 @@
         <v>-7.1199999999999996E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="68">
         <v>1.885E-3</v>
       </c>
@@ -22720,7 +22675,7 @@
         <v>-6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="68">
         <v>1.918E-3</v>
       </c>
@@ -22836,7 +22791,7 @@
         <v>-7.8299999999999995E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="68">
         <v>2.3630000000000001E-3</v>
       </c>
@@ -22952,7 +22907,7 @@
         <v>-8.9599999999999999E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="68">
         <v>2.091E-3</v>
       </c>
@@ -23068,7 +23023,7 @@
         <v>-9.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="68">
         <v>2.5200000000000001E-3</v>
       </c>
@@ -23184,7 +23139,7 @@
         <v>-1.083E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="68">
         <v>2.8080000000000002E-3</v>
       </c>
@@ -23300,7 +23255,7 @@
         <v>-1.23E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="68">
         <v>2.6819999999999999E-3</v>
       </c>
@@ -23416,7 +23371,7 @@
         <v>-1.315E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" s="68">
         <v>2.7139999999999998E-3</v>
       </c>
@@ -23532,7 +23487,7 @@
         <v>-1.3630000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="68">
         <v>2.5579999999999999E-3</v>
       </c>
@@ -23648,7 +23603,7 @@
         <v>-1.407E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="68">
         <v>3.2989999999999998E-3</v>
       </c>
@@ -23764,7 +23719,7 @@
         <v>-1.446E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="68">
         <v>3.1619999999999999E-3</v>
       </c>
@@ -23880,7 +23835,7 @@
         <v>-1.5640000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="68">
         <v>3.2750000000000001E-3</v>
       </c>
@@ -23996,7 +23951,7 @@
         <v>-1.5759999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="68">
         <v>3.6099999999999999E-3</v>
       </c>
@@ -24112,7 +24067,7 @@
         <v>-1.495E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="68">
         <v>3.2079999999999999E-3</v>
       </c>
@@ -24228,7 +24183,7 @@
         <v>-1.691E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="68">
         <v>3.9420000000000002E-3</v>
       </c>
@@ -24344,7 +24299,7 @@
         <v>-1.5790000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" s="68">
         <v>4.0439999999999999E-3</v>
       </c>
@@ -24460,7 +24415,7 @@
         <v>-1.513E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75" s="68">
         <v>3.7959999999999999E-3</v>
       </c>
@@ -24576,7 +24531,7 @@
         <v>-1.7910000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76" s="68">
         <v>4.1159999999999999E-3</v>
       </c>
@@ -24692,7 +24647,7 @@
         <v>-1.658E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="68">
         <v>4.3790000000000001E-3</v>
       </c>
@@ -24808,7 +24763,7 @@
         <v>-1.8619999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78" s="68">
         <v>3.986E-3</v>
       </c>
@@ -24924,7 +24879,7 @@
         <v>-1.897E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79" s="68">
         <v>4.9880000000000002E-3</v>
       </c>
@@ -25051,9 +25006,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="68">
         <v>3.9052000000000003E-2</v>
       </c>
@@ -25169,7 +25124,7 @@
         <v>-5.2249999999999996E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="68">
         <v>4.2879E-2</v>
       </c>
@@ -25285,7 +25240,7 @@
         <v>-9.1070000000000005E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>4.6019999999999998E-2</v>
       </c>
@@ -25401,7 +25356,7 @@
         <v>-1.3223E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>4.8815999999999998E-2</v>
       </c>
@@ -25517,7 +25472,7 @@
         <v>-1.6456999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4.9065999999999999E-2</v>
       </c>
@@ -25633,7 +25588,7 @@
         <v>-1.7541000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>4.9091999999999997E-2</v>
       </c>
@@ -25749,7 +25704,7 @@
         <v>-1.7238E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>4.6552000000000003E-2</v>
       </c>
@@ -25865,7 +25820,7 @@
         <v>-1.6503E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>4.4330000000000001E-2</v>
       </c>
@@ -25981,7 +25936,7 @@
         <v>-1.5547E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <v>4.1424000000000002E-2</v>
       </c>
@@ -26097,7 +26052,7 @@
         <v>-1.4246E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
         <v>4.0887E-2</v>
       </c>
@@ -26213,7 +26168,7 @@
         <v>-1.3761000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="68">
         <v>3.9246999999999997E-2</v>
       </c>
@@ -26329,7 +26284,7 @@
         <v>-1.3187000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="68">
         <v>3.8958E-2</v>
       </c>
@@ -26445,7 +26400,7 @@
         <v>-1.2577E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="68">
         <v>3.7717000000000001E-2</v>
       </c>
@@ -26561,7 +26516,7 @@
         <v>-1.2291E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="68">
         <v>3.705E-2</v>
       </c>
@@ -26677,7 +26632,7 @@
         <v>-1.1861999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="68">
         <v>3.6303000000000002E-2</v>
       </c>
@@ -26793,7 +26748,7 @@
         <v>-1.1802999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="68">
         <v>3.5455E-2</v>
       </c>
@@ -26909,7 +26864,7 @@
         <v>-1.1254E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="68">
         <v>3.4903000000000003E-2</v>
       </c>
@@ -27025,7 +26980,7 @@
         <v>-1.1185E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="68">
         <v>3.4508999999999998E-2</v>
       </c>
@@ -27141,7 +27096,7 @@
         <v>-1.1039E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="68">
         <v>3.3848999999999997E-2</v>
       </c>
@@ -27257,7 +27212,7 @@
         <v>-1.0815999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="68">
         <v>3.3401E-2</v>
       </c>
@@ -27373,7 +27328,7 @@
         <v>-1.0692E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="68">
         <v>3.2717000000000003E-2</v>
       </c>
@@ -27489,7 +27444,7 @@
         <v>-1.0586E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="68">
         <v>3.2361000000000001E-2</v>
       </c>
@@ -27605,7 +27560,7 @@
         <v>-1.0251E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="68">
         <v>3.1400999999999998E-2</v>
       </c>
@@ -27721,7 +27676,7 @@
         <v>-1.0104E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="68">
         <v>3.0609999999999998E-2</v>
       </c>
@@ -27837,7 +27792,7 @@
         <v>-9.9319999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="68">
         <v>2.9686000000000001E-2</v>
       </c>
@@ -27953,7 +27908,7 @@
         <v>-9.7190000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="68">
         <v>2.9099E-2</v>
       </c>
@@ -28069,7 +28024,7 @@
         <v>-9.4769999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="68">
         <v>2.8523E-2</v>
       </c>
@@ -28185,7 +28140,7 @@
         <v>-9.2300000000000004E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="68">
         <v>2.7822E-2</v>
       </c>
@@ -28301,7 +28256,7 @@
         <v>-8.9730000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="68">
         <v>2.7400999999999998E-2</v>
       </c>
@@ -28417,7 +28372,7 @@
         <v>-8.8090000000000009E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="68">
         <v>2.7191E-2</v>
       </c>
@@ -28533,7 +28488,7 @@
         <v>-8.626E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="68">
         <v>2.7112000000000001E-2</v>
       </c>
@@ -28649,7 +28604,7 @@
         <v>-8.4089999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="68">
         <v>2.7039000000000001E-2</v>
       </c>
@@ -28765,7 +28720,7 @@
         <v>-8.2150000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="68">
         <v>2.7046000000000001E-2</v>
       </c>
@@ -28881,7 +28836,7 @@
         <v>-8.012E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="68">
         <v>2.7144000000000001E-2</v>
       </c>
@@ -28997,7 +28952,7 @@
         <v>-7.8300000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="68">
         <v>2.7091E-2</v>
       </c>
@@ -29113,7 +29068,7 @@
         <v>-7.6530000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="68">
         <v>2.7025E-2</v>
       </c>
@@ -29229,7 +29184,7 @@
         <v>-7.5770000000000004E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="68">
         <v>2.7267E-2</v>
       </c>
@@ -29345,7 +29300,7 @@
         <v>-7.3530000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="68">
         <v>2.7303999999999998E-2</v>
       </c>
@@ -29461,7 +29416,7 @@
         <v>-7.2529999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="68">
         <v>2.7094E-2</v>
       </c>
@@ -29577,7 +29532,7 @@
         <v>-7.1510000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="68">
         <v>2.6651999999999999E-2</v>
       </c>
@@ -29693,7 +29648,7 @@
         <v>-7.084E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="68">
         <v>2.6190999999999999E-2</v>
       </c>
@@ -29809,7 +29764,7 @@
         <v>-7.0359999999999997E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="68">
         <v>2.5491E-2</v>
       </c>
@@ -29925,7 +29880,7 @@
         <v>-6.9560000000000004E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="68">
         <v>1.8297000000000001E-2</v>
       </c>
@@ -30041,7 +29996,7 @@
         <v>-3.7629999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="68">
         <v>1.796E-2</v>
       </c>
@@ -30157,7 +30112,7 @@
         <v>-3.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="68">
         <v>1.7756000000000001E-2</v>
       </c>
@@ -30273,7 +30228,7 @@
         <v>-3.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="68">
         <v>1.7596000000000001E-2</v>
       </c>
@@ -30389,7 +30344,7 @@
         <v>-3.503E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="68">
         <v>1.7433000000000001E-2</v>
       </c>
@@ -30505,7 +30460,7 @@
         <v>-3.5230000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="68">
         <v>1.7330000000000002E-2</v>
       </c>
@@ -30621,7 +30576,7 @@
         <v>-3.4749999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="68">
         <v>1.7228E-2</v>
       </c>
@@ -30737,7 +30692,7 @@
         <v>-3.519E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="68">
         <v>1.7121999999999998E-2</v>
       </c>
@@ -30853,7 +30808,7 @@
         <v>-3.5300000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="68">
         <v>1.6742E-2</v>
       </c>
@@ -30969,7 +30924,7 @@
         <v>-3.5409999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="68">
         <v>1.6275999999999999E-2</v>
       </c>
@@ -31085,7 +31040,7 @@
         <v>-3.5400000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="68">
         <v>1.5796999999999999E-2</v>
       </c>
@@ -31201,7 +31156,7 @@
         <v>-3.5739999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="68">
         <v>1.5450999999999999E-2</v>
       </c>
@@ -31317,7 +31272,7 @@
         <v>-3.5820000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="68">
         <v>1.5082999999999999E-2</v>
       </c>
@@ -31433,7 +31388,7 @@
         <v>-3.6259999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="68">
         <v>1.481E-2</v>
       </c>
@@ -31549,7 +31504,7 @@
         <v>-3.6449999999999998E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="68">
         <v>1.4526000000000001E-2</v>
       </c>
@@ -31665,7 +31620,7 @@
         <v>-3.6600000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="68">
         <v>1.4201E-2</v>
       </c>
@@ -31781,7 +31736,7 @@
         <v>-3.6960000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="68">
         <v>1.3922E-2</v>
       </c>
@@ -31897,7 +31852,7 @@
         <v>-3.7079999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="68">
         <v>1.3563E-2</v>
       </c>
@@ -32013,7 +31968,7 @@
         <v>-3.7209999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="68">
         <v>1.3228E-2</v>
       </c>
@@ -32129,7 +32084,7 @@
         <v>-3.7090000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="68">
         <v>1.2903E-2</v>
       </c>
@@ -32245,7 +32200,7 @@
         <v>-3.7490000000000002E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="68">
         <v>1.2551E-2</v>
       </c>
@@ -32361,7 +32316,7 @@
         <v>-3.7940000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="68">
         <v>1.2343E-2</v>
       </c>
@@ -32477,7 +32432,7 @@
         <v>-3.7810000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="68">
         <v>1.2052E-2</v>
       </c>
@@ -32593,7 +32548,7 @@
         <v>-3.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" s="68">
         <v>1.1832000000000001E-2</v>
       </c>
@@ -32709,7 +32664,7 @@
         <v>-3.8809999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="68">
         <v>1.1682E-2</v>
       </c>
@@ -32825,7 +32780,7 @@
         <v>-3.9430000000000003E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="68">
         <v>1.1815000000000001E-2</v>
       </c>
@@ -32941,7 +32896,7 @@
         <v>-3.9560000000000003E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="68">
         <v>1.1721000000000001E-2</v>
       </c>
@@ -33057,7 +33012,7 @@
         <v>-4.0179999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="68">
         <v>1.167E-2</v>
       </c>
@@ -33173,7 +33128,7 @@
         <v>-4.0769999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="68">
         <v>1.1859E-2</v>
       </c>
@@ -33289,7 +33244,7 @@
         <v>-4.0969999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="68">
         <v>1.2023000000000001E-2</v>
       </c>
@@ -33405,7 +33360,7 @@
         <v>-4.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="68">
         <v>1.2104E-2</v>
       </c>
@@ -33521,7 +33476,7 @@
         <v>-4.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" s="68">
         <v>1.2133E-2</v>
       </c>
@@ -33637,7 +33592,7 @@
         <v>-4.0390000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75" s="68">
         <v>1.1886000000000001E-2</v>
       </c>
@@ -33753,7 +33708,7 @@
         <v>-3.9719999999999998E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76" s="68">
         <v>1.1396E-2</v>
       </c>
@@ -33869,7 +33824,7 @@
         <v>-3.7889999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="68">
         <v>1.1350000000000001E-2</v>
       </c>
@@ -33985,7 +33940,7 @@
         <v>-3.588E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78" s="68">
         <v>1.0918000000000001E-2</v>
       </c>
@@ -34101,7 +34056,7 @@
         <v>-3.3E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79" s="68">
         <v>1.0324E-2</v>
       </c>
@@ -34217,7 +34172,7 @@
         <v>-3.075E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80" s="68">
         <v>9.9000000000000008E-3</v>
       </c>
@@ -34333,7 +34288,7 @@
         <v>-2.8059999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A81" s="68">
         <v>9.4219999999999998E-3</v>
       </c>
@@ -34449,7 +34404,7 @@
         <v>-2.5929999999999998E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A82" s="68">
         <v>8.7539999999999996E-3</v>
       </c>
@@ -34565,7 +34520,7 @@
         <v>-2.356E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A83" s="68">
         <v>8.2030000000000002E-3</v>
       </c>
@@ -34681,7 +34636,7 @@
         <v>-2.1849999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A84" s="68">
         <v>7.6600000000000001E-3</v>
       </c>
@@ -34797,7 +34752,7 @@
         <v>-2.1940000000000002E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85" s="68">
         <v>6.9709999999999998E-3</v>
       </c>
@@ -34926,9 +34881,9 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="68">
         <v>-2.6474999999999999E-2</v>
       </c>
@@ -35044,7 +34999,7 @@
         <v>-1.0618000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="68">
         <v>-3.1786000000000002E-2</v>
       </c>
@@ -35160,7 +35115,7 @@
         <v>-9.953E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>-3.5865000000000001E-2</v>
       </c>
@@ -35276,7 +35231,7 @@
         <v>-8.2909999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>-3.9787999999999997E-2</v>
       </c>
@@ -35392,7 +35347,7 @@
         <v>-7.8169999999999993E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>-3.9779000000000002E-2</v>
       </c>
@@ -35508,7 +35463,7 @@
         <v>-7.7850000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>-4.2522999999999998E-2</v>
       </c>
@@ -35624,7 +35579,7 @@
         <v>-7.1989999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>-4.1472000000000002E-2</v>
       </c>
@@ -35740,7 +35695,7 @@
         <v>-7.1809999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>-3.9121999999999997E-2</v>
       </c>
@@ -35856,7 +35811,7 @@
         <v>-6.7559999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <v>-3.5792999999999998E-2</v>
       </c>
@@ -35972,7 +35927,7 @@
         <v>-6.6239999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
         <v>-3.4227E-2</v>
       </c>
@@ -36088,7 +36043,7 @@
         <v>-6.0439999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="68">
         <v>-3.1850000000000003E-2</v>
       </c>
@@ -36204,7 +36159,7 @@
         <v>-5.9610000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="68">
         <v>-3.0328000000000001E-2</v>
       </c>
@@ -36320,7 +36275,7 @@
         <v>-5.1190000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="68">
         <v>-2.9516000000000001E-2</v>
       </c>
@@ -36436,7 +36391,7 @@
         <v>-5.3090000000000004E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="68">
         <v>-2.8494999999999999E-2</v>
       </c>
@@ -36552,7 +36507,7 @@
         <v>-4.5149999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="68">
         <v>-2.8191999999999998E-2</v>
       </c>
@@ -36668,7 +36623,7 @@
         <v>-4.6610000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="68">
         <v>-2.7009999999999999E-2</v>
       </c>
@@ -36784,7 +36739,7 @@
         <v>-3.7360000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="68">
         <v>-2.5245E-2</v>
       </c>
@@ -36900,7 +36855,7 @@
         <v>-3.3419999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="68">
         <v>-2.5153999999999999E-2</v>
       </c>
@@ -37016,7 +36971,7 @@
         <v>-2.6940000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="68">
         <v>-2.4372000000000001E-2</v>
       </c>
@@ -37132,7 +37087,7 @@
         <v>-2.3549999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="68">
         <v>-2.3449000000000001E-2</v>
       </c>
@@ -37248,7 +37203,7 @@
         <v>-1.7129999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="68">
         <v>-2.3106000000000002E-2</v>
       </c>
@@ -37364,7 +37319,7 @@
         <v>-1.08E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="68">
         <v>-2.2789E-2</v>
       </c>
@@ -37480,7 +37435,7 @@
         <v>-9.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="68">
         <v>-2.2186999999999998E-2</v>
       </c>
@@ -37596,7 +37551,7 @@
         <v>-1.0900000000000001E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="68">
         <v>-2.1864999999999999E-2</v>
       </c>
@@ -37712,7 +37667,7 @@
         <v>1.73E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="68">
         <v>-2.1343999999999998E-2</v>
       </c>
@@ -37828,7 +37783,7 @@
         <v>5.0100000000000003E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="68">
         <v>-2.0452000000000001E-2</v>
       </c>
@@ -37944,7 +37899,7 @@
         <v>1.041E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="68">
         <v>-1.9657999999999998E-2</v>
       </c>
@@ -38060,7 +38015,7 @@
         <v>1.189E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="68">
         <v>-1.9133000000000001E-2</v>
       </c>
@@ -38176,7 +38131,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="68">
         <v>-1.7217E-2</v>
       </c>
@@ -38292,7 +38247,7 @@
         <v>1.5969999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="68">
         <v>-1.6278000000000001E-2</v>
       </c>
@@ -38408,7 +38363,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="68">
         <v>-1.4749E-2</v>
       </c>
@@ -38524,7 +38479,7 @@
         <v>1.5679999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="68">
         <v>-1.3306E-2</v>
       </c>
@@ -38640,7 +38595,7 @@
         <v>1.3940000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="68">
         <v>-1.2328E-2</v>
       </c>
@@ -38756,7 +38711,7 @@
         <v>1.1800000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="68">
         <v>-1.0454E-2</v>
       </c>
@@ -38872,7 +38827,7 @@
         <v>1.016E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="68">
         <v>-9.4289999999999999E-3</v>
       </c>
@@ -38988,7 +38943,7 @@
         <v>7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="68">
         <v>-8.5349999999999992E-3</v>
       </c>
@@ -39104,7 +39059,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="68">
         <v>-7.1479999999999998E-3</v>
       </c>
@@ -39220,7 +39175,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="68">
         <v>-6.5030000000000001E-3</v>
       </c>
@@ -39336,7 +39291,7 @@
         <v>2.31E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="68">
         <v>-5.9080000000000001E-3</v>
       </c>
@@ -39452,7 +39407,7 @@
         <v>1.8E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="68">
         <v>-4.7429999999999998E-3</v>
       </c>
@@ -39568,7 +39523,7 @@
         <v>-1.2E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="68">
         <v>-4.3200000000000001E-3</v>
       </c>
@@ -39684,7 +39639,7 @@
         <v>-1.07E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="68">
         <v>-3.5230000000000001E-3</v>
       </c>
@@ -39800,7 +39755,7 @@
         <v>-1.9599999999999999E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="68">
         <v>-1.2088E-2</v>
       </c>
@@ -39916,7 +39871,7 @@
         <v>-5.1999999999999997E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="68">
         <v>-1.2305999999999999E-2</v>
       </c>
@@ -40032,7 +39987,7 @@
         <v>-2.3800000000000001E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="68">
         <v>-1.2821000000000001E-2</v>
       </c>
@@ -40148,7 +40103,7 @@
         <v>-4.26E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="68">
         <v>-1.3117999999999999E-2</v>
       </c>
@@ -40264,7 +40219,7 @@
         <v>-8.0400000000000003E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="68">
         <v>-1.3311E-2</v>
       </c>
@@ -40380,7 +40335,7 @@
         <v>-1.157E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="68">
         <v>-1.3919000000000001E-2</v>
       </c>
@@ -40496,7 +40451,7 @@
         <v>-1.537E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="68">
         <v>-1.4126E-2</v>
       </c>
@@ -40612,7 +40567,7 @@
         <v>-1.8710000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="68">
         <v>-1.4512000000000001E-2</v>
       </c>
@@ -40728,7 +40683,7 @@
         <v>-2.1410000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="68">
         <v>-1.4843E-2</v>
       </c>
@@ -40844,7 +40799,7 @@
         <v>-2.2820000000000002E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="68">
         <v>-1.5046E-2</v>
       </c>
@@ -40960,7 +40915,7 @@
         <v>-2.4139999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="68">
         <v>-1.5133000000000001E-2</v>
       </c>
@@ -41076,7 +41031,7 @@
         <v>-2.4489999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="68">
         <v>-1.502E-2</v>
       </c>
@@ -41192,7 +41147,7 @@
         <v>-2.454E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="68">
         <v>-1.4655E-2</v>
       </c>
@@ -41308,7 +41263,7 @@
         <v>-2.3289999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="68">
         <v>-1.4227E-2</v>
       </c>
@@ -41424,7 +41379,7 @@
         <v>-2.183E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="68">
         <v>-1.3937E-2</v>
       </c>
@@ -41540,7 +41495,7 @@
         <v>-2.0899999999999998E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="68">
         <v>-1.3662000000000001E-2</v>
       </c>
@@ -41656,7 +41611,7 @@
         <v>-1.913E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="68">
         <v>-1.3372999999999999E-2</v>
       </c>
@@ -41772,7 +41727,7 @@
         <v>-1.7160000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="68">
         <v>-1.2999999999999999E-2</v>
       </c>
@@ -41888,7 +41843,7 @@
         <v>-1.5640000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="68">
         <v>-1.2707E-2</v>
       </c>
@@ -42004,7 +41959,7 @@
         <v>-1.3669999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="68">
         <v>-1.2499E-2</v>
       </c>
@@ -42120,7 +42075,7 @@
         <v>-1.268E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="68">
         <v>-1.2293E-2</v>
       </c>
@@ -42236,7 +42191,7 @@
         <v>-1.0939999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="68">
         <v>-1.2154E-2</v>
       </c>
@@ -42352,7 +42307,7 @@
         <v>-9.2500000000000004E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="68">
         <v>-1.2142999999999999E-2</v>
       </c>
@@ -42468,7 +42423,7 @@
         <v>-8.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" s="68">
         <v>-1.1752E-2</v>
       </c>
@@ -42584,7 +42539,7 @@
         <v>-6.6399999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="68">
         <v>-1.1494000000000001E-2</v>
       </c>
@@ -42700,7 +42655,7 @@
         <v>-6.1700000000000004E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="68">
         <v>-1.1488999999999999E-2</v>
       </c>
@@ -42816,7 +42771,7 @@
         <v>-4.9399999999999997E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="68">
         <v>-1.1126E-2</v>
       </c>
@@ -42932,7 +42887,7 @@
         <v>-3.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="68">
         <v>-1.1072E-2</v>
       </c>
@@ -43048,7 +43003,7 @@
         <v>-2.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="68">
         <v>-1.0926E-2</v>
       </c>
@@ -43164,7 +43119,7 @@
         <v>-1.16E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="68">
         <v>-1.0763E-2</v>
       </c>
@@ -43280,7 +43235,7 @@
         <v>6.7000000000000002E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="68">
         <v>-1.0873000000000001E-2</v>
       </c>
@@ -43396,7 +43351,7 @@
         <v>8.7000000000000001E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" s="68">
         <v>-1.1023E-2</v>
       </c>
@@ -43512,7 +43467,7 @@
         <v>2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75" s="68">
         <v>-1.1435000000000001E-2</v>
       </c>
@@ -43628,7 +43583,7 @@
         <v>4.7699999999999999E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76" s="68">
         <v>-1.2274E-2</v>
       </c>
@@ -43744,7 +43699,7 @@
         <v>5.6899999999999995E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="68">
         <v>-1.311E-2</v>
       </c>
@@ -43860,7 +43815,7 @@
         <v>7.8200000000000003E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78" s="68">
         <v>-1.4298E-2</v>
       </c>
@@ -43976,7 +43931,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79" s="68">
         <v>-1.5439E-2</v>
       </c>
@@ -44092,7 +44047,7 @@
         <v>8.8000000000000003E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80" s="68">
         <v>-1.6206999999999999E-2</v>
       </c>
@@ -44208,7 +44163,7 @@
         <v>9.4399999999999996E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A81" s="68">
         <v>-1.7188999999999999E-2</v>
       </c>
@@ -44324,7 +44279,7 @@
         <v>7.4899999999999999E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A82" s="68">
         <v>-1.6986999999999999E-2</v>
       </c>
@@ -44440,7 +44395,7 @@
         <v>5.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A83" s="68">
         <v>-1.6865000000000002E-2</v>
       </c>
@@ -44556,7 +44511,7 @@
         <v>2.6499999999999999E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A84" s="68">
         <v>-1.6111E-2</v>
       </c>
@@ -44672,7 +44627,7 @@
         <v>-1.47E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85" s="68">
         <v>-1.3502999999999999E-2</v>
       </c>
